--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0024-002 - Penambahan Role.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0024-002 - Penambahan Role.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA7EBE-D926-427A-B482-AFCE6F4BD4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D81CEF-5FC6-4FC3-98D2-4C1D85F0D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0323" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0024" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -67,9 +67,6 @@
     <t>SUB_SUB_NAVBAR</t>
   </si>
   <si>
-    <t>DGS-338</t>
-  </si>
-  <si>
     <t>Penambahan Role</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Pipeline</t>
+  </si>
+  <si>
+    <t>SCD0024-002</t>
   </si>
 </sst>
 </file>
@@ -486,14 +486,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="83" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.140625" customWidth="1"/>
@@ -559,16 +559,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="9">
         <v>51162</v>
@@ -577,10 +577,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
